--- a/biology/Botanique/Melica_ciliata/Melica_ciliata.xlsx
+++ b/biology/Botanique/Melica_ciliata/Melica_ciliata.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Melica ciliata, la Mélique ciliée, est une espèce de plantes herbacées de la famille des Poaceae (graminées).
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">La Mélique ciliée est une  plante vivace  rampante, courte, de 30 à 80 cm de haut, de couleur glauque.
 La floraison survient en juin-juillet.
@@ -543,9 +557,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Elle affectionne les lieux secs et arides dans quasiment toute la France, y compris la Corse. Elle pousse en Europe, en Asie occidentale et en Afrique septentrionale[1].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Elle affectionne les lieux secs et arides dans quasiment toute la France, y compris la Corse. Elle pousse en Europe, en Asie occidentale et en Afrique septentrionale.
 Elle a été introduite en Australie du sud.
 </t>
         </is>
@@ -575,9 +591,11 @@
           <t>Utilisation</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">On la trouve dans les pelouses basophiles des régions médio-européennes[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">On la trouve dans les pelouses basophiles des régions médio-européennes.
 Elle peut être appréciée comme fleur séchée.
 </t>
         </is>
@@ -607,7 +625,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t>Melica glauca Schultz</t>
         </is>
@@ -637,11 +657,13 @@
           <t>Sous-espèces</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Melica ciliata subsp. ciliata
 Melica ciliata subsp. magnolii
-Melica ciliata subsp. transsilvanica[1].
+Melica ciliata subsp. transsilvanica.
 			Jeune plant.
 			Épi
 			À maturité.
